--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
@@ -181,16 +181,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="zfj4nyjn" xfId="1"/>
-    <cellStyle name="zfj4nyjn_Alternate" xfId="2"/>
-    <cellStyle name="qbqtpp0t" xfId="3"/>
-    <cellStyle name="qbqtpp0t_Alternate" xfId="4"/>
-    <cellStyle name="hotr4cas" xfId="5"/>
-    <cellStyle name="hotr4cas_Alternate" xfId="6"/>
-    <cellStyle name="3zw34g2l" xfId="7"/>
-    <cellStyle name="3zw34g2l_Alternate" xfId="8"/>
-    <cellStyle name="tlmw2rkm" xfId="9"/>
-    <cellStyle name="tlmw2rkm_Alternate" xfId="10"/>
+    <cellStyle name="hv1puiyk" xfId="1"/>
+    <cellStyle name="hv1puiyk_Alternate" xfId="2"/>
+    <cellStyle name="yzgvlspc" xfId="3"/>
+    <cellStyle name="yzgvlspc_Alternate" xfId="4"/>
+    <cellStyle name="mvuo50e5" xfId="5"/>
+    <cellStyle name="mvuo50e5_Alternate" xfId="6"/>
+    <cellStyle name="iewh5b0k" xfId="7"/>
+    <cellStyle name="iewh5b0k_Alternate" xfId="8"/>
+    <cellStyle name="mwy14zi0" xfId="9"/>
+    <cellStyle name="mwy14zi0_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
@@ -181,16 +181,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="hv1puiyk" xfId="1"/>
-    <cellStyle name="hv1puiyk_Alternate" xfId="2"/>
-    <cellStyle name="yzgvlspc" xfId="3"/>
-    <cellStyle name="yzgvlspc_Alternate" xfId="4"/>
-    <cellStyle name="mvuo50e5" xfId="5"/>
-    <cellStyle name="mvuo50e5_Alternate" xfId="6"/>
-    <cellStyle name="iewh5b0k" xfId="7"/>
-    <cellStyle name="iewh5b0k_Alternate" xfId="8"/>
-    <cellStyle name="mwy14zi0" xfId="9"/>
-    <cellStyle name="mwy14zi0_Alternate" xfId="10"/>
+    <cellStyle name="czd1xdld" xfId="1"/>
+    <cellStyle name="czd1xdld_Alternate" xfId="2"/>
+    <cellStyle name="maj2khl2" xfId="3"/>
+    <cellStyle name="maj2khl2_Alternate" xfId="4"/>
+    <cellStyle name="afkuu3jo" xfId="5"/>
+    <cellStyle name="afkuu3jo_Alternate" xfId="6"/>
+    <cellStyle name="suuhv0bd" xfId="7"/>
+    <cellStyle name="suuhv0bd_Alternate" xfId="8"/>
+    <cellStyle name="gv33y41y" xfId="9"/>
+    <cellStyle name="gv33y41y_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
